--- a/contratos/contratos-9-2015.xlsx
+++ b/contratos/contratos-9-2015.xlsx
@@ -718,7 +718,7 @@
     <t>IMEL INGENIERIA Y MATERIALES ELECTRICOS S.R.L.</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>PEREZ RUBEN</t>
@@ -808,7 +808,7 @@
     <t>GABIOUD HUGO ALBERTO Y EDUARDO RAUL S.H.</t>
   </si>
   <si>
-    <t>FERNANDEZ, MARIO HUGO</t>
+    <t>FERNANDEZ. MARIO HUGO</t>
   </si>
   <si>
     <t>GALLICET OSCAR MARCELO</t>
@@ -940,10 +940,10 @@
     <t>VIVESCAS S.R.L.</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
-  </si>
-  <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
+  </si>
+  <si>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>CASA SPAIS S.A.</t>
@@ -1414,652 +1414,652 @@
     <t>19</t>
   </si>
   <si>
-    <t>6.220,00</t>
-  </si>
-  <si>
-    <t>140.000,00</t>
-  </si>
-  <si>
-    <t>8.516.778,75</t>
-  </si>
-  <si>
-    <t>177.000,00</t>
-  </si>
-  <si>
-    <t>756.480,00</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>70.204,31</t>
-  </si>
-  <si>
-    <t>3.872,00</t>
-  </si>
-  <si>
-    <t>5.039,65</t>
-  </si>
-  <si>
-    <t>1.750,00</t>
-  </si>
-  <si>
-    <t>4.043,00</t>
-  </si>
-  <si>
-    <t>7.300,00</t>
-  </si>
-  <si>
-    <t>3.571,92</t>
-  </si>
-  <si>
-    <t>6.600,00</t>
-  </si>
-  <si>
-    <t>525,00</t>
-  </si>
-  <si>
-    <t>12.690,00</t>
-  </si>
-  <si>
-    <t>473.586,28</t>
-  </si>
-  <si>
-    <t>57.176,88</t>
-  </si>
-  <si>
-    <t>95,00</t>
-  </si>
-  <si>
-    <t>15.576,00</t>
-  </si>
-  <si>
-    <t>1.945,00</t>
-  </si>
-  <si>
-    <t>7.934,66</t>
-  </si>
-  <si>
-    <t>642,00</t>
-  </si>
-  <si>
-    <t>15.312,00</t>
-  </si>
-  <si>
-    <t>19.690,84</t>
-  </si>
-  <si>
-    <t>25.308,36</t>
-  </si>
-  <si>
-    <t>2.500,00</t>
-  </si>
-  <si>
-    <t>1.250,00</t>
-  </si>
-  <si>
-    <t>120,00</t>
-  </si>
-  <si>
-    <t>23.577,00</t>
-  </si>
-  <si>
-    <t>1.568,37</t>
-  </si>
-  <si>
-    <t>329,42</t>
-  </si>
-  <si>
-    <t>32.234,57</t>
-  </si>
-  <si>
-    <t>307,43</t>
-  </si>
-  <si>
-    <t>640,00</t>
-  </si>
-  <si>
-    <t>44,60</t>
-  </si>
-  <si>
-    <t>725,29</t>
-  </si>
-  <si>
-    <t>91,14</t>
-  </si>
-  <si>
-    <t>3.989,68</t>
-  </si>
-  <si>
-    <t>2.898,26</t>
-  </si>
-  <si>
-    <t>1.038,00</t>
-  </si>
-  <si>
-    <t>7.099,00</t>
-  </si>
-  <si>
-    <t>35.577,80</t>
-  </si>
-  <si>
-    <t>108,00</t>
-  </si>
-  <si>
-    <t>2.497,82</t>
-  </si>
-  <si>
-    <t>100,00</t>
-  </si>
-  <si>
-    <t>697,50</t>
-  </si>
-  <si>
-    <t>2.050,00</t>
-  </si>
-  <si>
-    <t>26.635,14</t>
-  </si>
-  <si>
-    <t>16.272,68</t>
-  </si>
-  <si>
-    <t>1.477,66</t>
-  </si>
-  <si>
-    <t>985,00</t>
-  </si>
-  <si>
-    <t>53,00</t>
-  </si>
-  <si>
-    <t>251,32</t>
-  </si>
-  <si>
-    <t>239,16</t>
-  </si>
-  <si>
-    <t>2.435,60</t>
-  </si>
-  <si>
-    <t>87.457,42</t>
-  </si>
-  <si>
-    <t>243,56</t>
-  </si>
-  <si>
-    <t>31.735,57</t>
-  </si>
-  <si>
-    <t>2.714,55</t>
-  </si>
-  <si>
-    <t>57,96</t>
-  </si>
-  <si>
-    <t>2.823,72</t>
-  </si>
-  <si>
-    <t>3.434,00</t>
-  </si>
-  <si>
-    <t>1.362,00</t>
-  </si>
-  <si>
-    <t>2.345,00</t>
-  </si>
-  <si>
-    <t>558,85</t>
-  </si>
-  <si>
-    <t>62.389,11</t>
-  </si>
-  <si>
-    <t>1.162,00</t>
-  </si>
-  <si>
-    <t>1.723,00</t>
-  </si>
-  <si>
-    <t>70,02</t>
-  </si>
-  <si>
-    <t>38.300,00</t>
-  </si>
-  <si>
-    <t>125,00</t>
-  </si>
-  <si>
-    <t>136.165,55</t>
-  </si>
-  <si>
-    <t>4.950,00</t>
-  </si>
-  <si>
-    <t>7.115,00</t>
-  </si>
-  <si>
-    <t>1.984,80</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>17.071,00</t>
-  </si>
-  <si>
-    <t>79.500,00</t>
-  </si>
-  <si>
-    <t>43.836,00</t>
-  </si>
-  <si>
-    <t>153.738,00</t>
-  </si>
-  <si>
-    <t>40,00</t>
-  </si>
-  <si>
-    <t>17.860,00</t>
-  </si>
-  <si>
-    <t>9.160,00</t>
-  </si>
-  <si>
-    <t>13.680,00</t>
-  </si>
-  <si>
-    <t>611,00</t>
-  </si>
-  <si>
-    <t>2.115,00</t>
-  </si>
-  <si>
-    <t>4.790,00</t>
-  </si>
-  <si>
-    <t>21,59</t>
-  </si>
-  <si>
-    <t>6.100,00</t>
-  </si>
-  <si>
-    <t>391.178,31</t>
-  </si>
-  <si>
-    <t>264,00</t>
-  </si>
-  <si>
-    <t>53.261,49</t>
-  </si>
-  <si>
-    <t>4.235,00</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>133,48</t>
-  </si>
-  <si>
-    <t>44,00</t>
-  </si>
-  <si>
-    <t>630,00</t>
-  </si>
-  <si>
-    <t>16.734,50</t>
-  </si>
-  <si>
-    <t>54,45</t>
-  </si>
-  <si>
-    <t>3.775,00</t>
-  </si>
-  <si>
-    <t>278,98</t>
-  </si>
-  <si>
-    <t>6.961,50</t>
-  </si>
-  <si>
-    <t>10.830,00</t>
-  </si>
-  <si>
-    <t>2.074,00</t>
-  </si>
-  <si>
-    <t>634,10</t>
-  </si>
-  <si>
-    <t>6.590,40</t>
-  </si>
-  <si>
-    <t>2.997,00</t>
-  </si>
-  <si>
-    <t>288,76</t>
-  </si>
-  <si>
-    <t>1.299,00</t>
-  </si>
-  <si>
-    <t>389,90</t>
-  </si>
-  <si>
-    <t>9.654,00</t>
-  </si>
-  <si>
-    <t>561,50</t>
-  </si>
-  <si>
-    <t>639,80</t>
-  </si>
-  <si>
-    <t>6.130,00</t>
-  </si>
-  <si>
-    <t>5.500,00</t>
-  </si>
-  <si>
-    <t>3.800,00</t>
-  </si>
-  <si>
-    <t>14.100,00</t>
-  </si>
-  <si>
-    <t>7.848,00</t>
-  </si>
-  <si>
-    <t>9.969,82</t>
-  </si>
-  <si>
-    <t>3.260,00</t>
-  </si>
-  <si>
-    <t>1.010,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>13.000,00</t>
-  </si>
-  <si>
-    <t>2.400,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>2.800,00</t>
-  </si>
-  <si>
-    <t>13.300,00</t>
-  </si>
-  <si>
-    <t>7.500,00</t>
-  </si>
-  <si>
-    <t>1.759,40</t>
-  </si>
-  <si>
-    <t>2.479,00</t>
-  </si>
-  <si>
-    <t>1.715,00</t>
-  </si>
-  <si>
-    <t>348,16</t>
-  </si>
-  <si>
-    <t>263.102,50</t>
-  </si>
-  <si>
-    <t>1.320,00</t>
-  </si>
-  <si>
-    <t>198.080,00</t>
-  </si>
-  <si>
-    <t>42.797,84</t>
-  </si>
-  <si>
-    <t>2.300,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>24.478,30</t>
-  </si>
-  <si>
-    <t>1.657,50</t>
-  </si>
-  <si>
-    <t>13.500,00</t>
-  </si>
-  <si>
-    <t>950,00</t>
-  </si>
-  <si>
-    <t>346,85</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>12.180,00</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>22.950,00</t>
-  </si>
-  <si>
-    <t>937,51</t>
-  </si>
-  <si>
-    <t>6.670,00</t>
-  </si>
-  <si>
-    <t>980,00</t>
-  </si>
-  <si>
-    <t>1.330,00</t>
-  </si>
-  <si>
-    <t>36,04</t>
-  </si>
-  <si>
-    <t>9.060,00</t>
-  </si>
-  <si>
-    <t>2.155,00</t>
-  </si>
-  <si>
-    <t>11.880,00</t>
-  </si>
-  <si>
-    <t>70,00</t>
-  </si>
-  <si>
-    <t>236,68</t>
-  </si>
-  <si>
-    <t>2.589,00</t>
-  </si>
-  <si>
-    <t>7.112,49</t>
-  </si>
-  <si>
-    <t>426,81</t>
-  </si>
-  <si>
-    <t>8.672,13</t>
-  </si>
-  <si>
-    <t>51.200,00</t>
-  </si>
-  <si>
-    <t>242,56</t>
-  </si>
-  <si>
-    <t>7.398,99</t>
-  </si>
-  <si>
-    <t>1.802,00</t>
-  </si>
-  <si>
-    <t>5.910,00</t>
-  </si>
-  <si>
-    <t>14.900,00</t>
-  </si>
-  <si>
-    <t>2.700,00</t>
-  </si>
-  <si>
-    <t>1.020,46</t>
-  </si>
-  <si>
-    <t>2.587,64</t>
-  </si>
-  <si>
-    <t>4.052,61</t>
-  </si>
-  <si>
-    <t>335,40</t>
-  </si>
-  <si>
-    <t>74.709,92</t>
-  </si>
-  <si>
-    <t>125.162,00</t>
-  </si>
-  <si>
-    <t>147.876,00</t>
-  </si>
-  <si>
-    <t>700,00</t>
-  </si>
-  <si>
-    <t>32.130,00</t>
-  </si>
-  <si>
-    <t>2.637,16</t>
-  </si>
-  <si>
-    <t>1.350,00</t>
-  </si>
-  <si>
-    <t>741,20</t>
-  </si>
-  <si>
-    <t>36.000,00</t>
-  </si>
-  <si>
-    <t>1.742,97</t>
-  </si>
-  <si>
-    <t>1.192,23</t>
-  </si>
-  <si>
-    <t>8.010,00</t>
-  </si>
-  <si>
-    <t>250.512,74</t>
-  </si>
-  <si>
-    <t>262.500,00</t>
-  </si>
-  <si>
-    <t>118.000,00</t>
-  </si>
-  <si>
-    <t>185.000,00</t>
-  </si>
-  <si>
-    <t>451.142,00</t>
-  </si>
-  <si>
-    <t>194.336,00</t>
-  </si>
-  <si>
-    <t>32.500,00</t>
-  </si>
-  <si>
-    <t>27.000,00</t>
-  </si>
-  <si>
-    <t>139.500,00</t>
-  </si>
-  <si>
-    <t>300.372,00</t>
-  </si>
-  <si>
-    <t>272.800,00</t>
-  </si>
-  <si>
-    <t>38.000,00</t>
-  </si>
-  <si>
-    <t>193.700,00</t>
-  </si>
-  <si>
-    <t>92.780,00</t>
-  </si>
-  <si>
-    <t>100.000,00</t>
-  </si>
-  <si>
-    <t>14.286.789,66</t>
-  </si>
-  <si>
-    <t>70.611,97</t>
-  </si>
-  <si>
-    <t>826.292,78</t>
-  </si>
-  <si>
-    <t>30.448,53</t>
-  </si>
-  <si>
-    <t>30.120,00</t>
-  </si>
-  <si>
-    <t>19.840,00</t>
-  </si>
-  <si>
-    <t>3.360,00</t>
-  </si>
-  <si>
-    <t>14.973,00</t>
-  </si>
-  <si>
-    <t>1.230,00</t>
-  </si>
-  <si>
-    <t>603,84</t>
-  </si>
-  <si>
-    <t>1.200,01</t>
-  </si>
-  <si>
-    <t>1.340,00</t>
-  </si>
-  <si>
-    <t>1.325,00</t>
-  </si>
-  <si>
-    <t>755,00</t>
-  </si>
-  <si>
-    <t>680,00</t>
-  </si>
-  <si>
-    <t>30.000,00</t>
+    <t>6220.00</t>
+  </si>
+  <si>
+    <t>140000.00</t>
+  </si>
+  <si>
+    <t>8516778.75</t>
+  </si>
+  <si>
+    <t>177000.00</t>
+  </si>
+  <si>
+    <t>756480.00</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>70204.31</t>
+  </si>
+  <si>
+    <t>3872.00</t>
+  </si>
+  <si>
+    <t>5039.65</t>
+  </si>
+  <si>
+    <t>1750.00</t>
+  </si>
+  <si>
+    <t>4043.00</t>
+  </si>
+  <si>
+    <t>7300.00</t>
+  </si>
+  <si>
+    <t>3571.92</t>
+  </si>
+  <si>
+    <t>6600.00</t>
+  </si>
+  <si>
+    <t>525.00</t>
+  </si>
+  <si>
+    <t>12690.00</t>
+  </si>
+  <si>
+    <t>473586.28</t>
+  </si>
+  <si>
+    <t>57176.88</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>15576.00</t>
+  </si>
+  <si>
+    <t>1945.00</t>
+  </si>
+  <si>
+    <t>7934.66</t>
+  </si>
+  <si>
+    <t>642.00</t>
+  </si>
+  <si>
+    <t>15312.00</t>
+  </si>
+  <si>
+    <t>19690.84</t>
+  </si>
+  <si>
+    <t>25308.36</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>1250.00</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>23577.00</t>
+  </si>
+  <si>
+    <t>1568.37</t>
+  </si>
+  <si>
+    <t>329.42</t>
+  </si>
+  <si>
+    <t>32234.57</t>
+  </si>
+  <si>
+    <t>307.43</t>
+  </si>
+  <si>
+    <t>640.00</t>
+  </si>
+  <si>
+    <t>44.60</t>
+  </si>
+  <si>
+    <t>725.29</t>
+  </si>
+  <si>
+    <t>91.14</t>
+  </si>
+  <si>
+    <t>3989.68</t>
+  </si>
+  <si>
+    <t>2898.26</t>
+  </si>
+  <si>
+    <t>1038.00</t>
+  </si>
+  <si>
+    <t>7099.00</t>
+  </si>
+  <si>
+    <t>35577.80</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>2497.82</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>697.50</t>
+  </si>
+  <si>
+    <t>2050.00</t>
+  </si>
+  <si>
+    <t>26635.14</t>
+  </si>
+  <si>
+    <t>16272.68</t>
+  </si>
+  <si>
+    <t>1477.66</t>
+  </si>
+  <si>
+    <t>985.00</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>251.32</t>
+  </si>
+  <si>
+    <t>239.16</t>
+  </si>
+  <si>
+    <t>2435.60</t>
+  </si>
+  <si>
+    <t>87457.42</t>
+  </si>
+  <si>
+    <t>243.56</t>
+  </si>
+  <si>
+    <t>31735.57</t>
+  </si>
+  <si>
+    <t>2714.55</t>
+  </si>
+  <si>
+    <t>57.96</t>
+  </si>
+  <si>
+    <t>2823.72</t>
+  </si>
+  <si>
+    <t>3434.00</t>
+  </si>
+  <si>
+    <t>1362.00</t>
+  </si>
+  <si>
+    <t>2345.00</t>
+  </si>
+  <si>
+    <t>558.85</t>
+  </si>
+  <si>
+    <t>62389.11</t>
+  </si>
+  <si>
+    <t>1162.00</t>
+  </si>
+  <si>
+    <t>1723.00</t>
+  </si>
+  <si>
+    <t>70.02</t>
+  </si>
+  <si>
+    <t>38300.00</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>136165.55</t>
+  </si>
+  <si>
+    <t>4950.00</t>
+  </si>
+  <si>
+    <t>7115.00</t>
+  </si>
+  <si>
+    <t>1984.80</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>17071.00</t>
+  </si>
+  <si>
+    <t>79500.00</t>
+  </si>
+  <si>
+    <t>43836.00</t>
+  </si>
+  <si>
+    <t>153738.00</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>17860.00</t>
+  </si>
+  <si>
+    <t>9160.00</t>
+  </si>
+  <si>
+    <t>13680.00</t>
+  </si>
+  <si>
+    <t>611.00</t>
+  </si>
+  <si>
+    <t>2115.00</t>
+  </si>
+  <si>
+    <t>4790.00</t>
+  </si>
+  <si>
+    <t>21.59</t>
+  </si>
+  <si>
+    <t>6100.00</t>
+  </si>
+  <si>
+    <t>391178.31</t>
+  </si>
+  <si>
+    <t>264.00</t>
+  </si>
+  <si>
+    <t>53261.49</t>
+  </si>
+  <si>
+    <t>4235.00</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>133.48</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>630.00</t>
+  </si>
+  <si>
+    <t>16734.50</t>
+  </si>
+  <si>
+    <t>54.45</t>
+  </si>
+  <si>
+    <t>3775.00</t>
+  </si>
+  <si>
+    <t>278.98</t>
+  </si>
+  <si>
+    <t>6961.50</t>
+  </si>
+  <si>
+    <t>10830.00</t>
+  </si>
+  <si>
+    <t>2074.00</t>
+  </si>
+  <si>
+    <t>634.10</t>
+  </si>
+  <si>
+    <t>6590.40</t>
+  </si>
+  <si>
+    <t>2997.00</t>
+  </si>
+  <si>
+    <t>288.76</t>
+  </si>
+  <si>
+    <t>1299.00</t>
+  </si>
+  <si>
+    <t>389.90</t>
+  </si>
+  <si>
+    <t>9654.00</t>
+  </si>
+  <si>
+    <t>561.50</t>
+  </si>
+  <si>
+    <t>639.80</t>
+  </si>
+  <si>
+    <t>6130.00</t>
+  </si>
+  <si>
+    <t>5500.00</t>
+  </si>
+  <si>
+    <t>3800.00</t>
+  </si>
+  <si>
+    <t>14100.00</t>
+  </si>
+  <si>
+    <t>7848.00</t>
+  </si>
+  <si>
+    <t>9969.82</t>
+  </si>
+  <si>
+    <t>3260.00</t>
+  </si>
+  <si>
+    <t>1010.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>13000.00</t>
+  </si>
+  <si>
+    <t>2400.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>2800.00</t>
+  </si>
+  <si>
+    <t>13300.00</t>
+  </si>
+  <si>
+    <t>7500.00</t>
+  </si>
+  <si>
+    <t>1759.40</t>
+  </si>
+  <si>
+    <t>2479.00</t>
+  </si>
+  <si>
+    <t>1715.00</t>
+  </si>
+  <si>
+    <t>348.16</t>
+  </si>
+  <si>
+    <t>263102.50</t>
+  </si>
+  <si>
+    <t>1320.00</t>
+  </si>
+  <si>
+    <t>198080.00</t>
+  </si>
+  <si>
+    <t>42797.84</t>
+  </si>
+  <si>
+    <t>2300.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>24478.30</t>
+  </si>
+  <si>
+    <t>1657.50</t>
+  </si>
+  <si>
+    <t>13500.00</t>
+  </si>
+  <si>
+    <t>950.00</t>
+  </si>
+  <si>
+    <t>346.85</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>12180.00</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>22950.00</t>
+  </si>
+  <si>
+    <t>937.51</t>
+  </si>
+  <si>
+    <t>6670.00</t>
+  </si>
+  <si>
+    <t>980.00</t>
+  </si>
+  <si>
+    <t>1330.00</t>
+  </si>
+  <si>
+    <t>36.04</t>
+  </si>
+  <si>
+    <t>9060.00</t>
+  </si>
+  <si>
+    <t>2155.00</t>
+  </si>
+  <si>
+    <t>11880.00</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>236.68</t>
+  </si>
+  <si>
+    <t>2589.00</t>
+  </si>
+  <si>
+    <t>7112.49</t>
+  </si>
+  <si>
+    <t>426.81</t>
+  </si>
+  <si>
+    <t>8672.13</t>
+  </si>
+  <si>
+    <t>51200.00</t>
+  </si>
+  <si>
+    <t>242.56</t>
+  </si>
+  <si>
+    <t>7398.99</t>
+  </si>
+  <si>
+    <t>1802.00</t>
+  </si>
+  <si>
+    <t>5910.00</t>
+  </si>
+  <si>
+    <t>14900.00</t>
+  </si>
+  <si>
+    <t>2700.00</t>
+  </si>
+  <si>
+    <t>1020.46</t>
+  </si>
+  <si>
+    <t>2587.64</t>
+  </si>
+  <si>
+    <t>4052.61</t>
+  </si>
+  <si>
+    <t>335.40</t>
+  </si>
+  <si>
+    <t>74709.92</t>
+  </si>
+  <si>
+    <t>125162.00</t>
+  </si>
+  <si>
+    <t>147876.00</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>32130.00</t>
+  </si>
+  <si>
+    <t>2637.16</t>
+  </si>
+  <si>
+    <t>1350.00</t>
+  </si>
+  <si>
+    <t>741.20</t>
+  </si>
+  <si>
+    <t>36000.00</t>
+  </si>
+  <si>
+    <t>1742.97</t>
+  </si>
+  <si>
+    <t>1192.23</t>
+  </si>
+  <si>
+    <t>8010.00</t>
+  </si>
+  <si>
+    <t>250512.74</t>
+  </si>
+  <si>
+    <t>262500.00</t>
+  </si>
+  <si>
+    <t>118000.00</t>
+  </si>
+  <si>
+    <t>185000.00</t>
+  </si>
+  <si>
+    <t>451142.00</t>
+  </si>
+  <si>
+    <t>194336.00</t>
+  </si>
+  <si>
+    <t>32500.00</t>
+  </si>
+  <si>
+    <t>27000.00</t>
+  </si>
+  <si>
+    <t>139500.00</t>
+  </si>
+  <si>
+    <t>300372.00</t>
+  </si>
+  <si>
+    <t>272800.00</t>
+  </si>
+  <si>
+    <t>38000.00</t>
+  </si>
+  <si>
+    <t>193700.00</t>
+  </si>
+  <si>
+    <t>92780.00</t>
+  </si>
+  <si>
+    <t>100000.00</t>
+  </si>
+  <si>
+    <t>14286789.66</t>
+  </si>
+  <si>
+    <t>70611.97</t>
+  </si>
+  <si>
+    <t>826292.78</t>
+  </si>
+  <si>
+    <t>30448.53</t>
+  </si>
+  <si>
+    <t>30120.00</t>
+  </si>
+  <si>
+    <t>19840.00</t>
+  </si>
+  <si>
+    <t>3360.00</t>
+  </si>
+  <si>
+    <t>14973.00</t>
+  </si>
+  <si>
+    <t>1230.00</t>
+  </si>
+  <si>
+    <t>603.84</t>
+  </si>
+  <si>
+    <t>1200.01</t>
+  </si>
+  <si>
+    <t>1340.00</t>
+  </si>
+  <si>
+    <t>1325.00</t>
+  </si>
+  <si>
+    <t>755.00</t>
+  </si>
+  <si>
+    <t>680.00</t>
+  </si>
+  <si>
+    <t>30000.00</t>
   </si>
 </sst>
 </file>
